--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H2">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I2">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J2">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N2">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q2">
-        <v>21.48943485700278</v>
+        <v>0.7560178109369998</v>
       </c>
       <c r="R2">
-        <v>21.48943485700278</v>
+        <v>6.804160298433</v>
       </c>
       <c r="S2">
-        <v>0.6033865488910922</v>
+        <v>0.01745947935219403</v>
       </c>
       <c r="T2">
-        <v>0.6033865488910922</v>
+        <v>0.01745947935219403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H3">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I3">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J3">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N3">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q3">
-        <v>3.442830846683259</v>
+        <v>0.120773020182</v>
       </c>
       <c r="R3">
-        <v>3.442830846683259</v>
+        <v>1.086957181638</v>
       </c>
       <c r="S3">
-        <v>0.09666879733317227</v>
+        <v>0.002789132771298502</v>
       </c>
       <c r="T3">
-        <v>0.09666879733317227</v>
+        <v>0.002789132771298503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H4">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I4">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J4">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N4">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q4">
-        <v>4.261289659695009</v>
+        <v>0.1839958325366667</v>
       </c>
       <c r="R4">
-        <v>4.261289659695009</v>
+        <v>1.65596249283</v>
       </c>
       <c r="S4">
-        <v>0.1196497199064678</v>
+        <v>0.004249200736530507</v>
       </c>
       <c r="T4">
-        <v>0.1196497199064678</v>
+        <v>0.004249200736530508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H5">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I5">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J5">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N5">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q5">
-        <v>1.652498430500839</v>
+        <v>22.70339008947899</v>
       </c>
       <c r="R5">
-        <v>1.652498430500839</v>
+        <v>204.330510805311</v>
       </c>
       <c r="S5">
-        <v>0.04639932746779163</v>
+        <v>0.5243122116406023</v>
       </c>
       <c r="T5">
-        <v>0.04639932746779163</v>
+        <v>0.5243122116406024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H6">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I6">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J6">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N6">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q6">
-        <v>0.2647474262809659</v>
+        <v>3.626841788393999</v>
       </c>
       <c r="R6">
-        <v>0.2647474262809659</v>
+        <v>32.64157609554599</v>
       </c>
       <c r="S6">
-        <v>0.007433654581168042</v>
+        <v>0.08375830357707839</v>
       </c>
       <c r="T6">
-        <v>0.007433654581168042</v>
+        <v>0.08375830357707842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H7">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I7">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J7">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N7">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O7">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P7">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q7">
-        <v>0.3276854194358094</v>
+        <v>5.525437496956666</v>
       </c>
       <c r="R7">
-        <v>0.3276854194358094</v>
+        <v>49.72893747260999</v>
       </c>
       <c r="S7">
-        <v>0.009200845702597509</v>
+        <v>0.1276044829822041</v>
       </c>
       <c r="T7">
-        <v>0.009200845702597509</v>
+        <v>0.1276044829822041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.764404170233046</v>
+        <v>0.2617743333333333</v>
       </c>
       <c r="H8">
-        <v>0.764404170233046</v>
+        <v>0.785323</v>
       </c>
       <c r="I8">
-        <v>0.1172611061177102</v>
+        <v>0.035341796875</v>
       </c>
       <c r="J8">
-        <v>0.1172611061177102</v>
+        <v>0.03534179687500001</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N8">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O8">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P8">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q8">
-        <v>3.074123859049977</v>
+        <v>1.090669932891</v>
       </c>
       <c r="R8">
-        <v>3.074123859049977</v>
+        <v>9.816029396018999</v>
       </c>
       <c r="S8">
-        <v>0.086316136209207</v>
+        <v>0.02518793723889675</v>
       </c>
       <c r="T8">
-        <v>0.086316136209207</v>
+        <v>0.02518793723889676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.764404170233046</v>
+        <v>0.2617743333333333</v>
       </c>
       <c r="H9">
-        <v>0.764404170233046</v>
+        <v>0.785323</v>
       </c>
       <c r="I9">
-        <v>0.1172611061177102</v>
+        <v>0.035341796875</v>
       </c>
       <c r="J9">
-        <v>0.1172611061177102</v>
+        <v>0.03534179687500001</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N9">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O9">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P9">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q9">
-        <v>0.4925065977253156</v>
+        <v>0.174233331426</v>
       </c>
       <c r="R9">
-        <v>0.4925065977253156</v>
+        <v>1.568099982834</v>
       </c>
       <c r="S9">
-        <v>0.01382874227661376</v>
+        <v>0.004023745483887445</v>
       </c>
       <c r="T9">
-        <v>0.01382874227661376</v>
+        <v>0.004023745483887446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1024,619 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2617743333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.785323</v>
+      </c>
+      <c r="I10">
+        <v>0.035341796875</v>
+      </c>
+      <c r="J10">
+        <v>0.03534179687500001</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.01401</v>
+      </c>
+      <c r="N10">
+        <v>3.04203</v>
+      </c>
+      <c r="O10">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P10">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q10">
+        <v>0.2654417917433334</v>
+      </c>
+      <c r="R10">
+        <v>2.38897612569</v>
+      </c>
+      <c r="S10">
+        <v>0.006130114152215807</v>
+      </c>
+      <c r="T10">
+        <v>0.006130114152215807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.680199</v>
+      </c>
+      <c r="I11">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J11">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.166450999999999</v>
+      </c>
+      <c r="N11">
+        <v>12.499353</v>
+      </c>
+      <c r="O11">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="P11">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="Q11">
+        <v>2.333488934583</v>
+      </c>
+      <c r="R11">
+        <v>21.001400411247</v>
+      </c>
+      <c r="S11">
+        <v>0.05388960588300238</v>
+      </c>
+      <c r="T11">
+        <v>0.0538896058830024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.680199</v>
+      </c>
+      <c r="I12">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J12">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N12">
+        <v>1.996758</v>
+      </c>
+      <c r="O12">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="P12">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="Q12">
+        <v>0.3727723105379999</v>
+      </c>
+      <c r="R12">
+        <v>3.354950794842</v>
+      </c>
+      <c r="S12">
+        <v>0.008608805724882885</v>
+      </c>
+      <c r="T12">
+        <v>0.008608805724882887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.680199</v>
+      </c>
+      <c r="I13">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J13">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.01401</v>
+      </c>
+      <c r="N13">
+        <v>3.04203</v>
+      </c>
+      <c r="O13">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P13">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q13">
+        <v>0.5679128626633334</v>
+      </c>
+      <c r="R13">
+        <v>5.11121576397</v>
+      </c>
+      <c r="S13">
+        <v>0.01311538267494884</v>
+      </c>
+      <c r="T13">
+        <v>0.01311538267494884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.764404170233046</v>
-      </c>
-      <c r="H10">
-        <v>0.764404170233046</v>
-      </c>
-      <c r="I10">
-        <v>0.1172611061177102</v>
-      </c>
-      <c r="J10">
-        <v>0.1172611061177102</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.797470039517346</v>
-      </c>
-      <c r="N10">
-        <v>0.797470039517346</v>
-      </c>
-      <c r="O10">
-        <v>0.1459667932409548</v>
-      </c>
-      <c r="P10">
-        <v>0.1459667932409548</v>
-      </c>
-      <c r="Q10">
-        <v>0.6095894238429712</v>
-      </c>
-      <c r="R10">
-        <v>0.6095894238429712</v>
-      </c>
-      <c r="S10">
-        <v>0.01711622763188948</v>
-      </c>
-      <c r="T10">
-        <v>0.01711622763188948</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.503686</v>
+      </c>
+      <c r="I14">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J14">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.166450999999999</v>
+      </c>
+      <c r="N14">
+        <v>12.499353</v>
+      </c>
+      <c r="O14">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="P14">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="Q14">
+        <v>0.6995276794619998</v>
+      </c>
+      <c r="R14">
+        <v>6.295749115157999</v>
+      </c>
+      <c r="S14">
+        <v>0.01615489595505409</v>
+      </c>
+      <c r="T14">
+        <v>0.0161548959550541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.503686</v>
+      </c>
+      <c r="I15">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J15">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.996758</v>
+      </c>
+      <c r="O15">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="P15">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="Q15">
+        <v>0.111748783332</v>
+      </c>
+      <c r="R15">
+        <v>1.005739049988</v>
+      </c>
+      <c r="S15">
+        <v>0.002580726997423139</v>
+      </c>
+      <c r="T15">
+        <v>0.00258072699742314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.503686</v>
+      </c>
+      <c r="I16">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J16">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.01401</v>
+      </c>
+      <c r="N16">
+        <v>3.04203</v>
+      </c>
+      <c r="O16">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P16">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q16">
+        <v>0.1702475469533333</v>
+      </c>
+      <c r="R16">
+        <v>1.53222792258</v>
+      </c>
+      <c r="S16">
+        <v>0.00393169775604811</v>
+      </c>
+      <c r="T16">
+        <v>0.003931697756048111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.786648</v>
+      </c>
+      <c r="H17">
+        <v>2.359944</v>
+      </c>
+      <c r="I17">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J17">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.166450999999999</v>
+      </c>
+      <c r="N17">
+        <v>12.499353</v>
+      </c>
+      <c r="O17">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="P17">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="Q17">
+        <v>3.277530346248</v>
+      </c>
+      <c r="R17">
+        <v>29.497773116232</v>
+      </c>
+      <c r="S17">
+        <v>0.07569130327178875</v>
+      </c>
+      <c r="T17">
+        <v>0.07569130327178876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.786648</v>
+      </c>
+      <c r="H18">
+        <v>2.359944</v>
+      </c>
+      <c r="I18">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J18">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N18">
+        <v>1.996758</v>
+      </c>
+      <c r="O18">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="P18">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="Q18">
+        <v>0.523581895728</v>
+      </c>
+      <c r="R18">
+        <v>4.712237061552</v>
+      </c>
+      <c r="S18">
+        <v>0.01209160308844548</v>
+      </c>
+      <c r="T18">
+        <v>0.01209160308844549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.786648</v>
+      </c>
+      <c r="H19">
+        <v>2.359944</v>
+      </c>
+      <c r="I19">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J19">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.01401</v>
+      </c>
+      <c r="N19">
+        <v>3.04203</v>
+      </c>
+      <c r="O19">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P19">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q19">
+        <v>0.7976689384800001</v>
+      </c>
+      <c r="R19">
+        <v>7.17902044632</v>
+      </c>
+      <c r="S19">
+        <v>0.0184213707134985</v>
+      </c>
+      <c r="T19">
+        <v>0.0184213707134985</v>
       </c>
     </row>
   </sheetData>
